--- a/BackTest/2020-01-22 BackTest WICC.xlsx
+++ b/BackTest/2020-01-22 BackTest WICC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1224,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1504,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1539,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1644,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1714,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2041,6 +2091,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2082,6 +2133,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2333,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2368,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2407,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2450,6 +2511,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2493,6 +2555,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2534,6 +2597,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2575,6 +2639,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,6 +2683,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2659,6 +2725,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2700,6 +2767,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2741,6 +2809,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,6 +2851,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2825,6 +2895,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2868,6 +2939,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2911,6 +2983,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2952,6 +3025,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2993,6 +3067,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3034,6 +3109,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3075,6 +3151,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3116,6 +3193,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3157,6 +3235,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3200,6 +3279,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3241,6 +3321,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3282,6 +3363,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3323,6 +3405,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3364,6 +3447,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3407,6 +3491,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3450,6 +3535,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3493,6 +3579,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,6 +3623,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3577,6 +3665,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3620,6 +3709,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3663,6 +3753,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3704,6 +3795,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3745,6 +3837,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3786,6 +3879,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3827,6 +3921,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3868,6 +3963,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3909,6 +4005,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3950,6 +4047,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3991,6 +4089,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4032,6 +4131,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4073,6 +4173,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4114,6 +4215,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4155,6 +4257,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4196,6 +4299,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4237,6 +4341,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4278,6 +4383,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4319,6 +4425,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4360,6 +4467,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4401,6 +4509,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4442,6 +4551,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4483,6 +4593,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4524,6 +4635,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4565,6 +4677,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4606,6 +4719,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4647,6 +4761,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4688,6 +4803,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4729,6 +4845,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4770,6 +4887,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4811,6 +4929,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4852,6 +4971,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4893,6 +5013,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4934,6 +5055,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4975,6 +5097,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5016,6 +5139,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5059,6 +5183,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest WICC.xlsx
+++ b/BackTest/2020-01-22 BackTest WICC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>127825.00974685</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>129204.77164685</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>129204.77164685</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>123479.19164685</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>117879.19164685</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>112993.81824685</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>97197.81824684999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>96769.86594684998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>142585.70164685</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>142585.70164685</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>143136.70164685</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,22 +4807,15 @@
         <v>65315.39174684993</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>142</v>
-      </c>
-      <c r="K134" t="n">
-        <v>142</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5250,22 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>142</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5292,22 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>142</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5334,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5370,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5406,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5442,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5478,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5514,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5550,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5586,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5620,18 +5170,21 @@
         <v>71799.53464684993</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>144.8</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5656,22 +5209,21 @@
         <v>71803.53464684993</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
         <v>143</v>
       </c>
-      <c r="K146" t="n">
-        <v>143</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5696,26 +5248,21 @@
         <v>71807.53464684993</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
         <v>143.9</v>
       </c>
-      <c r="K147" t="n">
-        <v>143</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5740,26 +5287,21 @@
         <v>61820.26344684993</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
         <v>144.8</v>
       </c>
-      <c r="K148" t="n">
-        <v>143</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5784,26 +5326,21 @@
         <v>61824.26344684993</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
         <v>142</v>
       </c>
-      <c r="K149" t="n">
-        <v>143</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5828,28 +5365,23 @@
         <v>61828.26344684993</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
         <v>142.9</v>
       </c>
-      <c r="K150" t="n">
-        <v>143</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WICC.xlsx
+++ b/BackTest/2020-01-22 BackTest WICC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>130928.26774685</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>119874.26194685</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>117274.26194685</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>118826.01624685</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>123121.27954685</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>118896.88424685</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>108484.68164685</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>108494.68164685</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>127825.00974685</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>123479.19164685</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>117879.19164685</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>124483.19164685</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>125477.16954685</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>114595.23844685</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>115951.33344685</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>115951.33344685</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>112151.33344685</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>111147.33344685</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>111147.33344685</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>111167.33344685</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>111167.33344685</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>110986.65194685</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>110990.65194685</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>108995.16944685</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>114000.60294685</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>114001.24404685</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>114005.24404685</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>113734.22184685</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>112993.81824685</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>112993.81824685</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>97197.81824684999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>97155.72444684998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>96769.86594684998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>142595.70164685</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>142585.70164685</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>142585.70164685</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>143136.70164685</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>114804.80554685</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>114808.80554685</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>107385.34904685</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>102536.14794685</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>96907.08604684997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>97063.31854684997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>97063.31854684997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>97663.31854684997</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5170,17 +5170,11 @@
         <v>71799.53464684993</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>144.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5209,17 +5203,11 @@
         <v>71803.53464684993</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5248,17 +5236,11 @@
         <v>71807.53464684993</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5287,17 +5269,11 @@
         <v>61820.26344684993</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>144.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5326,17 +5302,15 @@
         <v>61824.26344684993</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>142</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="n">
+        <v>142</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5365,15 +5339,17 @@
         <v>61828.26344684993</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>142.9</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>142</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5382,6 +5358,6 @@
       <c r="M150" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WICC.xlsx
+++ b/BackTest/2020-01-22 BackTest WICC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>141631.50464685</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>154022.85054685</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>128500.90134685</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>128508.40134685</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>135328.26774685</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>131698.26194685</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>131098.26194685</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>131102.26194685</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>119874.26194685</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>117274.26194685</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>118826.01624685</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>123121.27954685</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>118896.88424685</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>108484.68164685</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>108494.68164685</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>127825.00974685</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>123479.19164685</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>117879.19164685</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>124483.19164685</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>125477.16954685</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>114595.23844685</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>115951.33344685</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>115951.33344685</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>112151.33344685</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>111147.33344685</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>111147.33344685</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>111167.33344685</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>111167.33344685</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>110986.65194685</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>110990.65194685</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>108995.16944685</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>114000.60294685</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>114001.24404685</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>114005.24404685</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>113734.22184685</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>112993.81824685</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>97197.81824684999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>97155.72444684998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>96769.86594684998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>142595.70164685</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>142585.70164685</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>142585.70164685</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>143136.70164685</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>114804.80554685</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>114808.80554685</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>107385.34904685</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>102536.14794685</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>96907.08604684997</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>97063.31854684997</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>97063.31854684997</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>97663.31854684997</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5137,10 +5137,14 @@
         <v>72509.53464684993</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>143</v>
+      </c>
+      <c r="J144" t="n">
+        <v>143</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5173,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>143</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>143</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>143</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>143</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,15 +5330,17 @@
         <v>61824.26344684993</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>142</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+        <v>143</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5345,11 +5375,11 @@
         <v>142.9</v>
       </c>
       <c r="J150" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5358,6 +5388,6 @@
       <c r="M150" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WICC.xlsx
+++ b/BackTest/2020-01-22 BackTest WICC.xlsx
@@ -451,7 +451,7 @@
         <v>141631.50464685</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>154022.85054685</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>128500.90134685</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,10 +550,14 @@
         <v>128508.40134685</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>145.2</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,17 @@
         <v>135328.26774685</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +626,17 @@
         <v>130928.26774685</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,7 +665,7 @@
         <v>131698.26194685</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +731,7 @@
         <v>131098.26194685</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +764,7 @@
         <v>131102.26194685</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>127825.00974685</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>129204.77164685</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>123479.19164685</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>117879.19164685</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>124483.19164685</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>126665.84074685</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>125477.16954685</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2216,7 @@
         <v>125481.16954685</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2249,7 @@
         <v>120594.18324685</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2282,7 @@
         <v>114595.23844685</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2629,7 +2645,7 @@
         <v>110986.65194685</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>108995.16944685</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>114004.60294685</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>114001.24404685</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -5137,14 +5153,10 @@
         <v>72509.53464684993</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>143</v>
-      </c>
-      <c r="J144" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5177,131 +5189,127 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>71803.53464684993</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
         <v>143</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="J146" t="n">
+        <v>143</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>71807.53464684993</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J147" t="n">
+        <v>143</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>142</v>
+      </c>
+      <c r="D148" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>142</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9987.271199999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>61820.26344684993</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>143</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4</v>
-      </c>
-      <c r="G146" t="n">
-        <v>71803.53464684993</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>143</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4</v>
-      </c>
-      <c r="G147" t="n">
-        <v>71807.53464684993</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>143</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>142</v>
-      </c>
-      <c r="D148" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="E148" t="n">
-        <v>142</v>
-      </c>
-      <c r="F148" t="n">
-        <v>9987.271199999999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>61820.26344684993</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>143</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5330,9 +5338,11 @@
         <v>61824.26344684993</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>142</v>
+      </c>
       <c r="J149" t="n">
         <v>143</v>
       </c>
